--- a/PrimitiveOperations/MOTION/02_Division/short_results.xlsx
+++ b/PrimitiveOperations/MOTION/02_Division/short_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UH01502807.bmwgroup.net\home$\Q533604\Masterarbeit\Ergebnisse\Primitive Operations\MOTION\02_Division\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UH01502807.bmwgroup.net\home$\Q533604\Masterarbeit\Ergebnisse\PrimitiveOperations\MOTION\02_Division\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC225D5C-3743-4661-903F-8759CC0B056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E5B56F-B5D2-45D6-8C2B-635C11404905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8A049D18-FE7C-48BB-BF5F-E4A2BAAFD5B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A049D18-FE7C-48BB-BF5F-E4A2BAAFD5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_short_results" sheetId="2" r:id="rId1"/>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0293864-05B9-4D40-A345-8588B00A269F}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
